--- a/ATGH001/ATGH001-a-001/atgh001-a-001.xlsx
+++ b/ATGH001/ATGH001-a-001/atgh001-a-001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcericmitzscherling/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4781384B-C807-1A47-BF4A-946882261385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE432039-2DC4-1E44-9C09-B7A9A19B205F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -431,9 +431,6 @@
     <t>https://hsa-digihub.netlify.app/ATGH001/ATGH001-a-001/default/</t>
   </si>
   <si>
-    <t>https://hsa-digihub.netlify.app/ATGH001/ATGH001-a-001/tumbs/</t>
-  </si>
-  <si>
     <t>https://hsa-digihub.netlify.app/ATGH001/ATGH001-a-001/ATGH001-a-001.pdf</t>
   </si>
   <si>
@@ -441,6 +438,9 @@
   </si>
   <si>
     <t>ATGH001-a-001-2.jpg</t>
+  </si>
+  <si>
+    <t>https://hsa-digihub.netlify.app/ATGH001/ATGH001-a-001/thumbs/</t>
   </si>
 </sst>
 </file>
@@ -817,9 +817,9 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1409,8 +1409,8 @@
       <c r="D26" t="s">
         <v>80</v>
       </c>
-      <c r="E26" t="s">
-        <v>130</v>
+      <c r="E26" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="F26" t="s">
         <v>105</v>
@@ -1450,7 +1450,7 @@
         <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F28" t="s">
         <v>116</v>
@@ -1463,6 +1463,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
     <hyperlink ref="G28" r:id="rId1" xr:uid="{A4595943-D744-6642-BC87-4A3D64EC23A4}"/>
+    <hyperlink ref="E26" r:id="rId2" xr:uid="{3E71F8FB-7B72-DB4E-AA8B-C183E69C7BEB}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1476,7 +1477,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
@@ -1508,7 +1509,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1516,7 +1517,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>2</v>

--- a/ATGH001/ATGH001-a-001/atgh001-a-001.xlsx
+++ b/ATGH001/ATGH001-a-001/atgh001-a-001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcericmitzscherling/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcericmitzscherling/Documents/Projekte/GitHub/Handschriftenarchiv/Digitalisierungen/ATGH001/ATGH001-a-001/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE432039-2DC4-1E44-9C09-B7A9A19B205F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D8FEE-2352-F649-8FAB-9EA00AED1FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -398,9 +398,6 @@
     <t>Handschriftenarchiv Dresdner Kreuzchor</t>
   </si>
   <si>
-    <t>["Handschriftenarchiv Dresdner","Marc Eric Mitzscherling"]</t>
-  </si>
-  <si>
     <t>Der Faulbeerbaum</t>
   </si>
   <si>
@@ -441,6 +438,9 @@
   </si>
   <si>
     <t>https://hsa-digihub.netlify.app/ATGH001/ATGH001-a-001/thumbs/</t>
+  </si>
+  <si>
+    <t>["Handschriftenarchiv Dresdner"]</t>
   </si>
 </sst>
 </file>
@@ -819,7 +819,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -921,8 +921,8 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>119</v>
+      <c r="E4" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -948,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -988,7 +988,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1071,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
         <v>49</v>
@@ -1114,7 +1114,7 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
         <v>57</v>
@@ -1137,7 +1137,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
         <v>61</v>
@@ -1249,7 +1249,7 @@
         <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
         <v>81</v>
@@ -1272,7 +1272,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
         <v>84</v>
@@ -1298,7 +1298,7 @@
         <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" t="s">
         <v>88</v>
@@ -1347,7 +1347,7 @@
         <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
         <v>95</v>
@@ -1387,7 +1387,7 @@
         <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
         <v>102</v>
@@ -1410,7 +1410,7 @@
         <v>80</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
         <v>105</v>
@@ -1430,7 +1430,7 @@
         <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
         <v>115</v>
@@ -1450,7 +1450,7 @@
         <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F28" t="s">
         <v>116</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3">
         <v>2</v>
